--- a/kiinduló_táblázat.xlsx
+++ b/kiinduló_táblázat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>cikkszám</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>ár4</t>
+  </si>
+  <si>
+    <t>ár5</t>
+  </si>
+  <si>
+    <t>ár6</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +389,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +405,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>10007650880</v>
       </c>
@@ -416,8 +428,12 @@
       <c r="E2" s="1">
         <v>1.38</v>
       </c>
+      <c r="G2" s="1">
+        <f>1.2+1.3</f>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>10012554150</v>
       </c>
@@ -433,8 +449,11 @@
       <c r="E3" s="1">
         <v>11.48</v>
       </c>
+      <c r="G3" s="1">
+        <v>12.41</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>33000351210</v>
       </c>
@@ -449,6 +468,9 @@
       </c>
       <c r="E4" s="1">
         <v>0.245</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>

--- a/kiinduló_táblázat.xlsx
+++ b/kiinduló_táblázat.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +428,7 @@
       <c r="E2" s="1">
         <v>1.38</v>
       </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
         <f>1.2+1.3</f>
         <v>2.5</v>
@@ -449,6 +450,9 @@
       <c r="E3" s="1">
         <v>11.48</v>
       </c>
+      <c r="F3" s="1">
+        <v>5000</v>
+      </c>
       <c r="G3" s="1">
         <v>12.41</v>
       </c>
@@ -469,6 +473,7 @@
       <c r="E4" s="1">
         <v>0.245</v>
       </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>0.27</v>
       </c>
